--- a/爬虫配置/default/default.xlsx
+++ b/爬虫配置/default/default.xlsx
@@ -19,76 +19,76 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.baidu.com/s?wd=淘宝天下传媒有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州恒业网络信息有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州酷跃科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江亚克药业有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州美中宜和妇儿医院有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江颐方健康科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州尽心药店连锁有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州余杭妇产医院有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州绿春环境工程有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州月子湾健康管理有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江君宝康食品有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=临安同济妇科医院有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州爱弥儿母婴服务有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州麦力斯科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州欧盼木品有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江毅腾健康产业有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州康膳堂生物科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州呼啸信息科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州益巨科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州养泰和健康科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州新华卓越门诊部有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江艳妆文化创意有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州航红搬家服务有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州雀皇生物科技有限公司%40V</t>
+    <t>https://www.baidu.com/s?wd=BDV-704321558</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-245662521</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-704914839</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-313409633</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-428998430</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-359794212</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-616619857</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-237426602</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-344147147</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-389896018</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-470443161</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-110492874</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-294834881</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-703208416</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-228799150</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-633051417</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-493356060</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-168961051</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-450846710</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-985842511</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-965020807</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-297404706</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-686267199</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/s?wd=BDV-873193391</t>
   </si>
 </sst>
 </file>
@@ -104,6 +104,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -466,7 +467,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
